--- a/attendance-files/LAB/LAB (C) Attendance Sheet.xlsx
+++ b/attendance-files/LAB/LAB (C) Attendance Sheet.xlsx
@@ -2996,11 +2996,11 @@
       </c>
       <c r="E28" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="27" t="s">
         <v>23</v>
@@ -3015,7 +3015,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L28" s="28" t="s">
         <v>20</v>
